--- a/FPR1010-NGFW-K9.xlsx
+++ b/FPR1010-NGFW-K9.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\cisco_spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9474DA-6A01-4239-B069-9B5935177AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23346AD-7121-46C6-8417-7029DF6C41AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Giao diện</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Khả năng quản trị.</t>
-  </si>
-  <si>
-    <t>Maximum VPN Peers</t>
   </si>
   <si>
     <t>Tích hợp ổ cứng</t>
@@ -87,21 +84,6 @@
   </si>
   <si>
     <t>Lọc URL: số lượng URL được phân loại</t>
-  </si>
-  <si>
-    <t>Thông lượng Stateful inspection firewall throughput</t>
-  </si>
-  <si>
-    <t>Thông lượng Stateful inspection firewall throughput (multiprotocol)</t>
-  </si>
-  <si>
-    <t>Kết nối tường lửa đồng thời</t>
-  </si>
-  <si>
-    <t>Kết nối mới mỗi giây</t>
-  </si>
-  <si>
-    <t>Thông lượng IPsec VPN throughput (450B UDP L2L test)</t>
   </si>
   <si>
     <t>Quản lý cục bộ, dựa trên web để triển khai ở quy mô nhỏ</t>
@@ -197,15 +179,6 @@
   </si>
   <si>
     <t>400 Mbps</t>
-  </si>
-  <si>
-    <t>2 Gbps</t>
-  </si>
-  <si>
-    <t>1.4 Gbps</t>
-  </si>
-  <si>
-    <t>500 Mbps</t>
   </si>
   <si>
     <t>8 x 1000BASE-T</t>
@@ -312,7 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -331,9 +304,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -15085,11 +15055,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15100,98 +15068,98 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>35</v>
+      <c r="B2" s="8" t="s">
+        <v>29</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="9" t="s">
-        <v>31</v>
+      <c r="B3" s="8" t="s">
+        <v>25</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" ht="33.6" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="7">
         <v>75</v>
@@ -15200,150 +15168,96 @@
     <row r="12" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="6" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="6" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
-        <v>20</v>
+      <c r="B16" s="8" t="s">
+        <v>26</v>
       </c>
-      <c r="C16" s="8">
-        <v>100000</v>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" ht="84" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="8">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="84" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
-      <c r="C19" s="7">
-        <v>75</v>
+      <c r="C19" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="50.4" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="1:3" ht="84" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="84" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="50.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/FPR1010-NGFW-K9.xlsx
+++ b/FPR1010-NGFW-K9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\cisco_spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23346AD-7121-46C6-8417-7029DF6C41AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E04946-DC9E-425B-8F8F-273B04656955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>Lọc URL: số lượng URL được phân loại</t>
-  </si>
-  <si>
-    <t>Quản lý cục bộ, dựa trên web để triển khai ở quy mô nhỏ</t>
   </si>
   <si>
     <t>Hơn 80</t>
@@ -187,6 +184,9 @@
     <t>Đầu vào AC
 100 to 240V AC
 50 to 60 Hz</t>
+  </si>
+  <si>
+    <t>Web UI, CLI</t>
   </si>
 </sst>
 </file>
@@ -15068,13 +15068,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
@@ -15082,14 +15082,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="8"/>
     </row>
@@ -15099,7 +15099,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
@@ -15108,7 +15108,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
@@ -15117,7 +15117,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
@@ -15126,7 +15126,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
@@ -15135,7 +15135,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
@@ -15144,7 +15144,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
@@ -15153,7 +15153,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
@@ -15171,7 +15171,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
@@ -15180,7 +15180,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
@@ -15189,7 +15189,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
@@ -15204,7 +15204,7 @@
     <row r="16" spans="1:3" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="8"/>
     </row>
@@ -15214,7 +15214,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="84" x14ac:dyDescent="0.25">
@@ -15223,7 +15223,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
@@ -15232,25 +15232,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="50.4" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
